--- a/biology/Botanique/Ruta_angustifolia/Ruta_angustifolia.xlsx
+++ b/biology/Botanique/Ruta_angustifolia/Ruta_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruta angustifolia, la rue à feuilles étroites, est un sous-arbrisseau vivace du genre Ruta de la faille des Rutacées commun en zone méditerranéene[1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruta angustifolia, la rue à feuilles étroites, est un sous-arbrisseau vivace du genre Ruta de la faille des Rutacées commun en zone méditerranéene,
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruta angustifolia est haute de 20 à 60 cm, ses feuilles sont alternes, glauques, pennatisequées et découpées en segments étroits dont les terminaux sont larges de 1,5 à 3,5 mm.. Les fleurs sont en grappe ou en panicule, de couleur jaune. Les pétales sont longuement frangés, les bractées sont petites. Elle fleurit de mai à août[1],[3]. Ruta angustifolia est butinée par de nombreux insectes[1]. Les fruits sont des capsules contenant de petites graines noires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruta angustifolia est haute de 20 à 60 cm, ses feuilles sont alternes, glauques, pennatisequées et découpées en segments étroits dont les terminaux sont larges de 1,5 à 3,5 mm.. Les fleurs sont en grappe ou en panicule, de couleur jaune. Les pétales sont longuement frangés, les bractées sont petites. Elle fleurit de mai à août,. Ruta angustifolia est butinée par de nombreux insectes. Les fruits sont des capsules contenant de petites graines noires.
 Cette espèce est très proche de Ruta chalepensis qui se reconnaît à ses feuilles aux segments terminaux moins étroits et dont les bractées sont très larges.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre dans les pelouses sèches des zones ensoleillées sur les sols pauvres. En France elle est présente dans le sud-est sur le pourtour méditerranéen[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre dans les pelouses sèches des zones ensoleillées sur les sols pauvres. En France elle est présente dans le sud-est sur le pourtour méditerranéen.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce toxique et qui dégage une odeur très désagréable[3].
-Comme plante médicinale elle a des propriétés anti hémorragiques, anti spasmodique et vermifuge[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce toxique et qui dégage une odeur très désagréable.
+Comme plante médicinale elle a des propriétés anti hémorragiques, anti spasmodique et vermifuge.
 </t>
         </is>
       </c>
